--- a/doc/02_機能一覧_ .xlsx
+++ b/doc/02_機能一覧_ .xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\C3\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDC58598-9EFF-4476-AEDE-DB823AD68ABC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB42EE29-3FC7-446E-84AF-3DBBDC472B5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12780" yWindow="780" windowWidth="9648" windowHeight="11148" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1646,12 +1646,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1665,6 +1659,12 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1973,7 +1973,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:I78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A35" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
@@ -1999,10 +1999,10 @@
       <c r="G2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="H2" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="I2" s="11"/>
+      <c r="I2" s="16"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.2">
       <c r="D3" s="4" t="s">
@@ -2014,31 +2014,31 @@
       <c r="G3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="12">
+      <c r="H3" s="17">
         <v>45450</v>
       </c>
-      <c r="I3" s="11"/>
+      <c r="I3" s="16"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.2">
       <c r="G4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="H4" s="11" t="s">
+      <c r="H4" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="I4" s="11"/>
+      <c r="I4" s="16"/>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="15" t="s">
         <v>177</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="12">
+      <c r="H5" s="17">
         <v>45453</v>
       </c>
-      <c r="I5" s="11"/>
+      <c r="I5" s="16"/>
     </row>
     <row r="6" spans="2:9" ht="21" x14ac:dyDescent="0.2">
       <c r="B6" s="6" t="s">
@@ -2147,23 +2147,23 @@
       <c r="B11" s="2">
         <v>4</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13" t="s">
+      <c r="D11" s="11"/>
+      <c r="E11" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="F11" s="13" t="s">
+      <c r="F11" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="G11" s="13" t="s">
+      <c r="G11" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="H11" s="14" t="s">
+      <c r="H11" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="I11" s="13" t="s">
+      <c r="I11" s="11" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2171,23 +2171,23 @@
       <c r="B12" s="2">
         <v>5</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C12" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13" t="s">
+      <c r="D12" s="11"/>
+      <c r="E12" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="F12" s="13" t="s">
+      <c r="F12" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="G12" s="13" t="s">
+      <c r="G12" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="H12" s="14" t="s">
+      <c r="H12" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="I12" s="13" t="s">
+      <c r="I12" s="11" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2195,23 +2195,23 @@
       <c r="B13" s="2">
         <v>6</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="C13" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13" t="s">
+      <c r="D13" s="11"/>
+      <c r="E13" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="F13" s="13" t="s">
+      <c r="F13" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="G13" s="13" t="s">
+      <c r="G13" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="H13" s="14" t="s">
+      <c r="H13" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="I13" s="13" t="s">
+      <c r="I13" s="11" t="s">
         <v>70</v>
       </c>
     </row>
@@ -2243,23 +2243,23 @@
       <c r="B15" s="2">
         <v>8</v>
       </c>
-      <c r="C15" s="15" t="s">
+      <c r="C15" s="13" t="s">
         <v>155</v>
       </c>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15" t="s">
+      <c r="D15" s="13"/>
+      <c r="E15" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="F15" s="15" t="s">
+      <c r="F15" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="G15" s="15" t="s">
+      <c r="G15" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="H15" s="16" t="s">
+      <c r="H15" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="I15" s="15" t="s">
+      <c r="I15" s="13" t="s">
         <v>70</v>
       </c>
     </row>
@@ -2315,23 +2315,23 @@
       <c r="B18" s="2">
         <v>11</v>
       </c>
-      <c r="C18" s="13" t="s">
+      <c r="C18" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13" t="s">
+      <c r="D18" s="11"/>
+      <c r="E18" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="F18" s="13" t="s">
+      <c r="F18" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="G18" s="13" t="s">
+      <c r="G18" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="H18" s="14" t="s">
+      <c r="H18" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="I18" s="13" t="s">
+      <c r="I18" s="11" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2411,23 +2411,23 @@
       <c r="B22" s="2">
         <v>15</v>
       </c>
-      <c r="C22" s="13" t="s">
+      <c r="C22" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13" t="s">
+      <c r="D22" s="11"/>
+      <c r="E22" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="F22" s="13" t="s">
+      <c r="F22" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="G22" s="13" t="s">
+      <c r="G22" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H22" s="14" t="s">
+      <c r="H22" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="I22" s="13" t="s">
+      <c r="I22" s="11" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2435,23 +2435,23 @@
       <c r="B23" s="2">
         <v>16</v>
       </c>
-      <c r="C23" s="13" t="s">
+      <c r="C23" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13" t="s">
+      <c r="D23" s="11"/>
+      <c r="E23" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="F23" s="13" t="s">
+      <c r="F23" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="G23" s="13" t="s">
+      <c r="G23" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="H23" s="14" t="s">
+      <c r="H23" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="I23" s="13" t="s">
+      <c r="I23" s="11" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2459,23 +2459,23 @@
       <c r="B24" s="2">
         <v>17</v>
       </c>
-      <c r="C24" s="13" t="s">
+      <c r="C24" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13" t="s">
+      <c r="D24" s="11"/>
+      <c r="E24" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="F24" s="13" t="s">
+      <c r="F24" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="G24" s="13" t="s">
+      <c r="G24" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="H24" s="14" t="s">
+      <c r="H24" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="I24" s="13" t="s">
+      <c r="I24" s="11" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2813,23 +2813,23 @@
       <c r="B39" s="2">
         <v>32</v>
       </c>
-      <c r="C39" s="13" t="s">
+      <c r="C39" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="D39" s="13"/>
-      <c r="E39" s="13" t="s">
+      <c r="D39" s="11"/>
+      <c r="E39" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="F39" s="13" t="s">
+      <c r="F39" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="G39" s="13" t="s">
+      <c r="G39" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="H39" s="14" t="s">
+      <c r="H39" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="I39" s="13" t="s">
+      <c r="I39" s="11" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2837,23 +2837,23 @@
       <c r="B40" s="2">
         <v>33</v>
       </c>
-      <c r="C40" s="13" t="s">
+      <c r="C40" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="D40" s="13"/>
-      <c r="E40" s="13" t="s">
+      <c r="D40" s="11"/>
+      <c r="E40" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="F40" s="13" t="s">
+      <c r="F40" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="G40" s="13" t="s">
+      <c r="G40" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="H40" s="14" t="s">
+      <c r="H40" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="I40" s="13" t="s">
+      <c r="I40" s="11" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2861,23 +2861,23 @@
       <c r="B41" s="2">
         <v>34</v>
       </c>
-      <c r="C41" s="13" t="s">
+      <c r="C41" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="D41" s="13"/>
-      <c r="E41" s="13" t="s">
+      <c r="D41" s="11"/>
+      <c r="E41" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="F41" s="13" t="s">
+      <c r="F41" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="G41" s="13" t="s">
+      <c r="G41" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="H41" s="14" t="s">
+      <c r="H41" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="I41" s="13" t="s">
+      <c r="I41" s="11" t="s">
         <v>10</v>
       </c>
     </row>
@@ -3267,23 +3267,23 @@
       <c r="B58" s="2">
         <v>51</v>
       </c>
-      <c r="C58" s="15" t="s">
+      <c r="C58" s="13" t="s">
         <v>176</v>
       </c>
-      <c r="D58" s="15"/>
-      <c r="E58" s="15" t="s">
+      <c r="D58" s="13"/>
+      <c r="E58" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="F58" s="15" t="s">
+      <c r="F58" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="G58" s="15" t="s">
+      <c r="G58" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="H58" s="16" t="s">
+      <c r="H58" s="14" t="s">
         <v>139</v>
       </c>
-      <c r="I58" s="15" t="s">
+      <c r="I58" s="13" t="s">
         <v>70</v>
       </c>
     </row>
@@ -3782,18 +3782,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3815,14 +3815,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7DECE4F4-50F7-40F4-8A2F-46E3690CFD3D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F979518E-1864-4EF9-BCF4-D03D12C729AB}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -3836,4 +3828,12 @@
     <ds:schemaRef ds:uri="87cf0ee8-fe20-4b5a-8adf-0a4439756175"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7DECE4F4-50F7-40F4-8A2F-46E3690CFD3D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>